--- a/data/trans_orig/P21D_5_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A4CB9F7-B656-4BCD-905F-EEF0794E83ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD726FB4-65DE-4027-AEF9-5F5A4857ADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4BD65BC7-5EC7-4703-827C-3EEA3586B7C1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE8722D6-67C3-4E9D-9C5B-4F23597D9381}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="106">
   <si>
     <t>Población que, necesitando atención sanitaria psiquiátrica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -113,24 +113,30 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,25%</t>
+    <t>2,3%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
+    <t>1,21%</t>
+  </si>
+  <si>
     <t>98,69%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,75%</t>
+    <t>97,7%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
+    <t>98,79%</t>
+  </si>
+  <si>
     <t>35/44</t>
   </si>
   <si>
@@ -140,13 +146,13 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,58%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -155,13 +161,13 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,42%</t>
+    <t>98,43%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,21%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -170,13 +176,13 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,92%</t>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -185,25 +191,25 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,14%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,08%</t>
+    <t>98,22%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,58%</t>
+    <t>98,56%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,91%</t>
+    <t>98,86%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -215,7 +221,7 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,22%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -224,7 +230,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,14%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -233,19 +239,19 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,75%</t>
+    <t>1,76%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>97,78%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,86%</t>
+    <t>97,64%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -254,7 +260,7 @@
     <t>99,25%</t>
   </si>
   <si>
-    <t>98,25%</t>
+    <t>98,24%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -266,7 +272,7 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,96%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -275,31 +281,31 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>1,05%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>99,04%</t>
+    <t>98,77%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>99,01%</t>
+    <t>98,95%</t>
   </si>
   <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>99,32%</t>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,92%</t>
@@ -311,16 +317,16 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,59%</t>
+    <t>0,6%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -329,7 +335,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>99,41%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -338,13 +344,13 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -759,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708C8C6D-CBF5-47ED-9243-84B8AA491B74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896FD68F-9267-48F9-A7EE-B380523AFF52}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1074,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1092,7 +1098,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -1104,10 +1110,10 @@
         <v>255720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -1119,10 +1125,10 @@
         <v>462238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -1181,7 +1187,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1199,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1208,13 +1214,13 @@
         <v>881</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1223,13 +1229,13 @@
         <v>881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,7 +1253,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1259,10 +1265,10 @@
         <v>276472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -1274,10 +1280,10 @@
         <v>500247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1336,7 +1342,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1348,13 +1354,13 @@
         <v>1146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1363,13 +1369,13 @@
         <v>1425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1378,13 +1384,13 @@
         <v>2571</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1399,10 +1405,10 @@
         <v>346135</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1414,10 +1420,10 @@
         <v>347511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -1429,13 +1435,13 @@
         <v>693645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1491,7 +1497,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1503,13 +1509,13 @@
         <v>1777</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1518,13 +1524,13 @@
         <v>2014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1533,13 +1539,13 @@
         <v>3791</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,10 +1560,10 @@
         <v>253794</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1569,13 +1575,13 @@
         <v>245385</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
@@ -1584,13 +1590,13 @@
         <v>499179</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,7 +1652,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1658,13 +1664,13 @@
         <v>600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -1673,13 +1679,13 @@
         <v>1176</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -1688,13 +1694,13 @@
         <v>1776</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,10 +1715,10 @@
         <v>292851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -1724,13 +1730,13 @@
         <v>392187</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>1148</v>
@@ -1739,13 +1745,13 @@
         <v>685038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,13 +1819,13 @@
         <v>3522</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -1828,13 +1834,13 @@
         <v>6605</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -1843,13 +1849,13 @@
         <v>10127</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,13 +1870,13 @@
         <v>1514850</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7">
         <v>2362</v>
@@ -1879,13 +1885,13 @@
         <v>1675929</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>3817</v>
@@ -1894,13 +1900,13 @@
         <v>3190779</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,7 +1962,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_5_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD726FB4-65DE-4027-AEF9-5F5A4857ADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B20A8E0-20AB-4009-87D6-95D90DF7832C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE8722D6-67C3-4E9D-9C5B-4F23597D9381}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9D1578D-0A03-4126-A143-B22B2F5B9CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -765,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896FD68F-9267-48F9-A7EE-B380523AFF52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F39A88-44F3-43DA-92A4-E5E5A450D129}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_5_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B20A8E0-20AB-4009-87D6-95D90DF7832C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF5604C-8F8D-4207-ACC6-3C67B32A4123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9D1578D-0A03-4126-A143-B22B2F5B9CA5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E2C8339-5ECD-4CEB-8754-7C99F97D65EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="104">
   <si>
     <t>Población que, necesitando atención sanitaria psiquiátrica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -113,30 +113,24 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,25%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
     <t>98,69%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,7%</t>
+    <t>97,75%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
     <t>35/44</t>
   </si>
   <si>
@@ -146,13 +140,13 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,57%</t>
+    <t>1,58%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -161,13 +155,13 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,43%</t>
+    <t>98,42%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,0%</t>
+    <t>99,21%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -176,13 +170,13 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,92%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,44%</t>
+    <t>1,42%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -191,25 +185,25 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,22%</t>
+    <t>98,08%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,56%</t>
+    <t>98,58%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,86%</t>
+    <t>98,91%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -221,7 +215,7 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,22%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -230,7 +224,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>2,14%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -239,19 +233,19 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,76%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>97,78%</t>
+    <t>97,19%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>97,64%</t>
+    <t>97,86%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -260,7 +254,7 @@
     <t>99,25%</t>
   </si>
   <si>
-    <t>98,24%</t>
+    <t>98,25%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -272,7 +266,7 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>0,96%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -281,31 +275,31 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>0,99%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,71%</t>
+    <t>0,68%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>98,77%</t>
+    <t>99,04%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,95%</t>
+    <t>99,01%</t>
   </si>
   <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>99,29%</t>
+    <t>99,32%</t>
   </si>
   <si>
     <t>99,92%</t>
@@ -317,16 +311,16 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,59%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -335,7 +329,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>99,4%</t>
+    <t>99,41%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -344,13 +338,13 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>99,79%</t>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -765,7 +759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F39A88-44F3-43DA-92A4-E5E5A450D129}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5442E36C-C502-4DC5-B0DB-1FFB56DFE915}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1080,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1098,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -1110,10 +1104,10 @@
         <v>255720</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -1125,10 +1119,10 @@
         <v>462238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -1187,7 +1181,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1205,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1214,13 +1208,13 @@
         <v>881</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1229,13 +1223,13 @@
         <v>881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1253,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1265,10 +1259,10 @@
         <v>276472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -1280,10 +1274,10 @@
         <v>500247</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1342,7 +1336,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1354,13 +1348,13 @@
         <v>1146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1369,13 +1363,13 @@
         <v>1425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1384,13 +1378,13 @@
         <v>2571</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,10 +1399,10 @@
         <v>346135</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1420,10 +1414,10 @@
         <v>347511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -1435,13 +1429,13 @@
         <v>693645</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,7 +1491,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1509,13 +1503,13 @@
         <v>1777</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1524,13 +1518,13 @@
         <v>2014</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1539,13 +1533,13 @@
         <v>3791</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,10 +1554,10 @@
         <v>253794</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1575,13 +1569,13 @@
         <v>245385</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
@@ -1590,13 +1584,13 @@
         <v>499179</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,7 +1646,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1664,13 +1658,13 @@
         <v>600</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -1679,13 +1673,13 @@
         <v>1176</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -1694,13 +1688,13 @@
         <v>1776</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,10 +1709,10 @@
         <v>292851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -1730,13 +1724,13 @@
         <v>392187</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>1148</v>
@@ -1745,13 +1739,13 @@
         <v>685038</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1813,13 @@
         <v>3522</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -1834,13 +1828,13 @@
         <v>6605</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -1849,13 +1843,13 @@
         <v>10127</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1864,13 @@
         <v>1514850</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H23" s="7">
         <v>2362</v>
@@ -1885,13 +1879,13 @@
         <v>1675929</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>3817</v>
@@ -1900,13 +1894,13 @@
         <v>3190779</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,7 +1956,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_5_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF5604C-8F8D-4207-ACC6-3C67B32A4123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5807B402-46FF-4A8A-BA09-4CE1F506C8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E2C8339-5ECD-4CEB-8754-7C99F97D65EA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4EB84764-745E-40EB-BCA2-949DA621AE39}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="105">
   <si>
     <t>Población que, necesitando atención sanitaria psiquiátrica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,247 +104,250 @@
     <t>98,93%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>35/44</t>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>99,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -759,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5442E36C-C502-4DC5-B0DB-1FFB56DFE915}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD2A79A-A94B-43F5-BB19-FFC87B14DB27}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -931,7 +934,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -946,7 +949,7 @@
         <v>93</v>
       </c>
       <c r="I5" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -961,7 +964,7 @@
         <v>178</v>
       </c>
       <c r="N5" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -982,7 +985,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -997,7 +1000,7 @@
         <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1012,7 +1015,7 @@
         <v>178</v>
       </c>
       <c r="N6" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1050,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1109</v>
+        <v>924</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>24</v>
@@ -1065,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1109</v>
+        <v>924</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
@@ -1074,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1086,13 +1089,13 @@
         <v>145</v>
       </c>
       <c r="D8" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -1101,13 +1104,13 @@
         <v>227</v>
       </c>
       <c r="I8" s="7">
-        <v>255720</v>
+        <v>290195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -1116,13 +1119,13 @@
         <v>372</v>
       </c>
       <c r="N8" s="7">
-        <v>462238</v>
+        <v>494917</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -1137,7 +1140,7 @@
         <v>145</v>
       </c>
       <c r="D9" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1152,7 +1155,7 @@
         <v>228</v>
       </c>
       <c r="I9" s="7">
-        <v>256829</v>
+        <v>291119</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1167,7 +1170,7 @@
         <v>373</v>
       </c>
       <c r="N9" s="7">
-        <v>463347</v>
+        <v>495841</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1181,7 +1184,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1199,37 +1202,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>881</v>
+        <v>741</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>881</v>
+        <v>741</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,13 +1244,13 @@
         <v>222</v>
       </c>
       <c r="D11" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1256,13 +1259,13 @@
         <v>394</v>
       </c>
       <c r="I11" s="7">
-        <v>276472</v>
+        <v>256948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -1271,13 +1274,13 @@
         <v>616</v>
       </c>
       <c r="N11" s="7">
-        <v>500247</v>
+        <v>472434</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -1292,7 +1295,7 @@
         <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1307,7 +1310,7 @@
         <v>395</v>
       </c>
       <c r="I12" s="7">
-        <v>277353</v>
+        <v>257689</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1322,7 +1325,7 @@
         <v>617</v>
       </c>
       <c r="N12" s="7">
-        <v>501128</v>
+        <v>473175</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1336,7 +1339,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1345,46 +1348,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1146</v>
+        <v>1114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1425</v>
+        <v>1334</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>2571</v>
+        <v>2448</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,7 +1399,7 @@
         <v>294</v>
       </c>
       <c r="D14" s="7">
-        <v>346135</v>
+        <v>525280</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>50</v>
@@ -1411,7 +1414,7 @@
         <v>526</v>
       </c>
       <c r="I14" s="7">
-        <v>347511</v>
+        <v>319528</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>52</v>
@@ -1426,16 +1429,16 @@
         <v>820</v>
       </c>
       <c r="N14" s="7">
-        <v>693645</v>
+        <v>844808</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,7 +1450,7 @@
         <v>295</v>
       </c>
       <c r="D15" s="7">
-        <v>347281</v>
+        <v>526394</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1462,7 +1465,7 @@
         <v>528</v>
       </c>
       <c r="I15" s="7">
-        <v>348936</v>
+        <v>320862</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1477,7 +1480,7 @@
         <v>823</v>
       </c>
       <c r="N15" s="7">
-        <v>696216</v>
+        <v>847256</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1491,7 +1494,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1500,46 +1503,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1777</v>
+        <v>1697</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>2014</v>
+        <v>1846</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>3791</v>
+        <v>3543</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,13 +1554,13 @@
         <v>276</v>
       </c>
       <c r="D17" s="7">
-        <v>253794</v>
+        <v>236807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1566,31 +1569,31 @@
         <v>407</v>
       </c>
       <c r="I17" s="7">
-        <v>245385</v>
+        <v>224846</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
       </c>
       <c r="N17" s="7">
-        <v>499179</v>
+        <v>461653</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,7 +1605,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>255571</v>
+        <v>238504</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1617,7 +1620,7 @@
         <v>410</v>
       </c>
       <c r="I18" s="7">
-        <v>247399</v>
+        <v>226692</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1632,7 +1635,7 @@
         <v>688</v>
       </c>
       <c r="N18" s="7">
-        <v>502970</v>
+        <v>465196</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1646,55 +1649,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1176</v>
+        <v>1093</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1093</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1776</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,49 +1706,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>433</v>
+        <v>242</v>
       </c>
       <c r="D20" s="7">
-        <v>292851</v>
+        <v>156354</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <v>371</v>
+      </c>
+      <c r="I20" s="7">
+        <v>184184</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="7">
+        <v>613</v>
+      </c>
+      <c r="N20" s="7">
+        <v>340538</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>715</v>
-      </c>
-      <c r="I20" s="7">
-        <v>392187</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1148</v>
-      </c>
-      <c r="N20" s="7">
-        <v>685038</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,10 +1757,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D21" s="7">
-        <v>293451</v>
+        <v>156354</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -1769,10 +1772,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>718</v>
+        <v>374</v>
       </c>
       <c r="I21" s="7">
-        <v>393363</v>
+        <v>185277</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1784,10 +1787,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1152</v>
+        <v>616</v>
       </c>
       <c r="N21" s="7">
-        <v>686814</v>
+        <v>341631</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1801,55 +1804,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>3522</v>
+        <v>570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>6605</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M22" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>10127</v>
+        <v>570</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,49 +1861,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1455</v>
+        <v>191</v>
       </c>
       <c r="D23" s="7">
-        <v>1514850</v>
+        <v>117636</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
-        <v>2362</v>
+        <v>344</v>
       </c>
       <c r="I23" s="7">
-        <v>1675929</v>
+        <v>170049</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>3817</v>
+        <v>535</v>
       </c>
       <c r="N23" s="7">
-        <v>3190779</v>
+        <v>287686</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,63 +1912,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>192</v>
+      </c>
+      <c r="D24" s="7">
+        <v>118206</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>344</v>
+      </c>
+      <c r="I24" s="7">
+        <v>170049</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>536</v>
+      </c>
+      <c r="N24" s="7">
+        <v>288256</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3381</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="7">
+        <v>10</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5938</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="7">
+        <v>14</v>
+      </c>
+      <c r="N25" s="7">
+        <v>9319</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1455</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1660233</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2362</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1586096</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3817</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3246329</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1459</v>
       </c>
-      <c r="D24" s="7">
-        <v>1518372</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1663614</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>2372</v>
       </c>
-      <c r="I24" s="7">
-        <v>1682534</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1592034</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3831</v>
       </c>
-      <c r="N24" s="7">
-        <v>3200906</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>103</v>
+      <c r="N27" s="7">
+        <v>3255648</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
